--- a/alternative_ids.xlsx
+++ b/alternative_ids.xlsx
@@ -377,13 +377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,17 +391,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7478703140</v>
-      </c>
-      <c r="C2">
-        <v>104322</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
